--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9623736666666666</v>
+        <v>1.550905333333333</v>
       </c>
       <c r="N2">
-        <v>2.887121</v>
+        <v>4.652716</v>
       </c>
       <c r="O2">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="P2">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="Q2">
-        <v>188.0818719083563</v>
+        <v>306.3710666146084</v>
       </c>
       <c r="R2">
-        <v>1692.736847175207</v>
+        <v>2757.339599531476</v>
       </c>
       <c r="S2">
-        <v>0.06879117120249237</v>
+        <v>0.103285229593043</v>
       </c>
       <c r="T2">
-        <v>0.06879117120249235</v>
+        <v>0.103285229593043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.646062</v>
       </c>
       <c r="O3">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072322</v>
       </c>
       <c r="P3">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072323</v>
       </c>
       <c r="Q3">
-        <v>367.8134410960393</v>
+        <v>371.7807055303202</v>
       </c>
       <c r="R3">
-        <v>3310.320969864354</v>
+        <v>3346.026349772882</v>
       </c>
       <c r="S3">
-        <v>0.1345282091266304</v>
+        <v>0.1253364292956105</v>
       </c>
       <c r="T3">
-        <v>0.1345282091266304</v>
+        <v>0.1253364292956105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3112836666666667</v>
+        <v>0.260824</v>
       </c>
       <c r="N4">
-        <v>0.933851</v>
+        <v>0.7824719999999999</v>
       </c>
       <c r="O4">
-        <v>0.07187545121741344</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="P4">
-        <v>0.07187545121741343</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="Q4">
-        <v>60.83584448434633</v>
+        <v>51.52405202382133</v>
       </c>
       <c r="R4">
-        <v>547.522600359117</v>
+        <v>463.7164682143919</v>
       </c>
       <c r="S4">
-        <v>0.02225078339931672</v>
+        <v>0.01737002648993138</v>
       </c>
       <c r="T4">
-        <v>0.02225078339931672</v>
+        <v>0.01737002648993138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8478866666666667</v>
+        <v>1.162287333333333</v>
       </c>
       <c r="N5">
-        <v>2.54366</v>
+        <v>3.486862</v>
       </c>
       <c r="O5">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="P5">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="Q5">
-        <v>165.7070605279133</v>
+        <v>229.6021571224091</v>
       </c>
       <c r="R5">
-        <v>1491.36354475122</v>
+        <v>2066.419414101682</v>
       </c>
       <c r="S5">
-        <v>0.06060755698875514</v>
+        <v>0.07740454010716692</v>
       </c>
       <c r="T5">
-        <v>0.06060755698875514</v>
+        <v>0.07740454010716692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3273113333333333</v>
+        <v>0.232356</v>
       </c>
       <c r="N6">
-        <v>0.981934</v>
+        <v>0.697068</v>
       </c>
       <c r="O6">
-        <v>0.07557624215824543</v>
+        <v>0.04566392273134021</v>
       </c>
       <c r="P6">
-        <v>0.07557624215824542</v>
+        <v>0.04566392273134022</v>
       </c>
       <c r="Q6">
-        <v>63.96821775410866</v>
+        <v>45.90038735717199</v>
       </c>
       <c r="R6">
-        <v>575.713959786978</v>
+        <v>413.103486214548</v>
       </c>
       <c r="S6">
-        <v>0.02339645269579908</v>
+        <v>0.01547415067284643</v>
       </c>
       <c r="T6">
-        <v>0.02339645269579908</v>
+        <v>0.01547415067284642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9623736666666666</v>
+        <v>1.550905333333333</v>
       </c>
       <c r="N7">
-        <v>2.887121</v>
+        <v>4.652716</v>
       </c>
       <c r="O7">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="P7">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="Q7">
-        <v>76.82364584874644</v>
+        <v>123.8045119060809</v>
       </c>
       <c r="R7">
-        <v>691.4128126387178</v>
+        <v>1114.240607154728</v>
       </c>
       <c r="S7">
-        <v>0.02809834100628153</v>
+        <v>0.04173754910400692</v>
       </c>
       <c r="T7">
-        <v>0.02809834100628153</v>
+        <v>0.04173754910400691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.646062</v>
       </c>
       <c r="O8">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072322</v>
       </c>
       <c r="P8">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072323</v>
       </c>
       <c r="Q8">
         <v>150.2365392818884</v>
@@ -948,10 +948,10 @@
         <v>1352.128853536996</v>
       </c>
       <c r="S8">
-        <v>0.05494919520817031</v>
+        <v>0.05064843630457296</v>
       </c>
       <c r="T8">
-        <v>0.05494919520817032</v>
+        <v>0.05064843630457296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3112836666666667</v>
+        <v>0.260824</v>
       </c>
       <c r="N9">
-        <v>0.933851</v>
+        <v>0.7824719999999999</v>
       </c>
       <c r="O9">
-        <v>0.07187545121741344</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="P9">
-        <v>0.07187545121741343</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="Q9">
-        <v>24.84891991000644</v>
+        <v>20.82086334953066</v>
       </c>
       <c r="R9">
-        <v>223.640279190058</v>
+        <v>187.387770145776</v>
       </c>
       <c r="S9">
-        <v>0.009088522388586073</v>
+        <v>0.007019225657123819</v>
       </c>
       <c r="T9">
-        <v>0.009088522388586073</v>
+        <v>0.007019225657123818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8478866666666667</v>
+        <v>1.162287333333333</v>
       </c>
       <c r="N10">
-        <v>2.54366</v>
+        <v>3.486862</v>
       </c>
       <c r="O10">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="P10">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="Q10">
-        <v>67.68446317269778</v>
+        <v>92.78220462926623</v>
       </c>
       <c r="R10">
-        <v>609.1601685542799</v>
+        <v>835.039841663396</v>
       </c>
       <c r="S10">
-        <v>0.0247556739340118</v>
+        <v>0.03127916553339938</v>
       </c>
       <c r="T10">
-        <v>0.0247556739340118</v>
+        <v>0.03127916553339937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3273113333333333</v>
+        <v>0.232356</v>
       </c>
       <c r="N11">
-        <v>0.981934</v>
+        <v>0.697068</v>
       </c>
       <c r="O11">
-        <v>0.07557624215824543</v>
+        <v>0.04566392273134021</v>
       </c>
       <c r="P11">
-        <v>0.07557624215824542</v>
+        <v>0.04566392273134022</v>
       </c>
       <c r="Q11">
-        <v>26.12836450666356</v>
+        <v>18.548341120616</v>
       </c>
       <c r="R11">
-        <v>235.155280559972</v>
+        <v>166.935070085544</v>
       </c>
       <c r="S11">
-        <v>0.009556480790954744</v>
+        <v>0.006253102462912393</v>
       </c>
       <c r="T11">
-        <v>0.009556480790954744</v>
+        <v>0.006253102462912392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9623736666666666</v>
+        <v>1.550905333333333</v>
       </c>
       <c r="N12">
-        <v>2.887121</v>
+        <v>4.652716</v>
       </c>
       <c r="O12">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="P12">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="Q12">
-        <v>156.3969398647481</v>
+        <v>230.812582055524</v>
       </c>
       <c r="R12">
-        <v>1407.572458782733</v>
+        <v>2077.313238499716</v>
       </c>
       <c r="S12">
-        <v>0.057202369141796</v>
+        <v>0.07781260415349926</v>
       </c>
       <c r="T12">
-        <v>0.057202369141796</v>
+        <v>0.07781260415349926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.646062</v>
       </c>
       <c r="O13">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072322</v>
       </c>
       <c r="P13">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072323</v>
       </c>
       <c r="Q13">
-        <v>305.8502983029251</v>
+        <v>280.090628498618</v>
       </c>
       <c r="R13">
-        <v>2752.652684726326</v>
+        <v>2520.815656487562</v>
       </c>
       <c r="S13">
-        <v>0.1118651150130067</v>
+        <v>0.09442544686417877</v>
       </c>
       <c r="T13">
-        <v>0.1118651150130067</v>
+        <v>0.09442544686417878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3112836666666667</v>
+        <v>0.260824</v>
       </c>
       <c r="N14">
-        <v>0.933851</v>
+        <v>0.7824719999999999</v>
       </c>
       <c r="O14">
-        <v>0.07187545121741344</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="P14">
-        <v>0.07187545121741343</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="Q14">
-        <v>50.58722467455812</v>
+        <v>38.816979739608</v>
       </c>
       <c r="R14">
-        <v>455.285022071023</v>
+        <v>349.352817656472</v>
       </c>
       <c r="S14">
-        <v>0.01850233835902109</v>
+        <v>0.01308615956727143</v>
       </c>
       <c r="T14">
-        <v>0.01850233835902109</v>
+        <v>0.01308615956727143</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8478866666666667</v>
+        <v>1.162287333333333</v>
       </c>
       <c r="N15">
-        <v>2.54366</v>
+        <v>3.486862</v>
       </c>
       <c r="O15">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="P15">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="Q15">
-        <v>137.7914677134645</v>
+        <v>172.976734769818</v>
       </c>
       <c r="R15">
-        <v>1240.12320942118</v>
+        <v>1556.790612928362</v>
       </c>
       <c r="S15">
-        <v>0.05039739529144114</v>
+        <v>0.05831471608064597</v>
       </c>
       <c r="T15">
-        <v>0.05039739529144114</v>
+        <v>0.05831471608064597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3273113333333333</v>
+        <v>0.232356</v>
       </c>
       <c r="N16">
-        <v>0.981934</v>
+        <v>0.697068</v>
       </c>
       <c r="O16">
-        <v>0.07557624215824543</v>
+        <v>0.04566392273134021</v>
       </c>
       <c r="P16">
-        <v>0.07557624215824542</v>
+        <v>0.04566392273134022</v>
       </c>
       <c r="Q16">
-        <v>53.1919073530869</v>
+        <v>34.58024623645201</v>
       </c>
       <c r="R16">
-        <v>478.727166177782</v>
+        <v>311.222216128068</v>
       </c>
       <c r="S16">
-        <v>0.01945500418613571</v>
+        <v>0.01165785239246742</v>
       </c>
       <c r="T16">
-        <v>0.01945500418613571</v>
+        <v>0.01165785239246742</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9623736666666666</v>
+        <v>1.550905333333333</v>
       </c>
       <c r="N17">
-        <v>2.887121</v>
+        <v>4.652716</v>
       </c>
       <c r="O17">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="P17">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="Q17">
-        <v>32.46911965956178</v>
+        <v>54.943695260916</v>
       </c>
       <c r="R17">
-        <v>292.222076936056</v>
+        <v>494.493257348244</v>
       </c>
       <c r="S17">
-        <v>0.0118756196258162</v>
+        <v>0.01852287241879945</v>
       </c>
       <c r="T17">
-        <v>0.0118756196258162</v>
+        <v>0.01852287241879945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.646062</v>
       </c>
       <c r="O18">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072322</v>
       </c>
       <c r="P18">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072323</v>
       </c>
       <c r="Q18">
-        <v>63.49670231462579</v>
+        <v>66.67406950096201</v>
       </c>
       <c r="R18">
-        <v>571.4703208316321</v>
+        <v>600.0666255086579</v>
       </c>
       <c r="S18">
-        <v>0.02322399535584933</v>
+        <v>0.02247747038388581</v>
       </c>
       <c r="T18">
-        <v>0.02322399535584933</v>
+        <v>0.02247747038388581</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3112836666666667</v>
+        <v>0.260824</v>
       </c>
       <c r="N19">
-        <v>0.933851</v>
+        <v>0.7824719999999999</v>
       </c>
       <c r="O19">
-        <v>0.07187545121741344</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="P19">
-        <v>0.07187545121741343</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="Q19">
-        <v>10.50226847548178</v>
+        <v>9.240173506872001</v>
       </c>
       <c r="R19">
-        <v>94.52041627933602</v>
+        <v>83.16156156184799</v>
       </c>
       <c r="S19">
-        <v>0.003841217345302842</v>
+        <v>0.003115089987715314</v>
       </c>
       <c r="T19">
-        <v>0.003841217345302842</v>
+        <v>0.003115089987715314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8478866666666667</v>
+        <v>1.162287333333333</v>
       </c>
       <c r="N20">
-        <v>2.54366</v>
+        <v>3.486862</v>
       </c>
       <c r="O20">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="P20">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="Q20">
-        <v>28.60649100375112</v>
+        <v>41.17618250176201</v>
       </c>
       <c r="R20">
-        <v>257.45841903376</v>
+        <v>370.585642515858</v>
       </c>
       <c r="S20">
-        <v>0.01046285854226534</v>
+        <v>0.01388150490336395</v>
       </c>
       <c r="T20">
-        <v>0.01046285854226534</v>
+        <v>0.01388150490336395</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3273113333333333</v>
+        <v>0.232356</v>
       </c>
       <c r="N21">
-        <v>0.981934</v>
+        <v>0.697068</v>
       </c>
       <c r="O21">
-        <v>0.07557624215824543</v>
+        <v>0.04566392273134021</v>
       </c>
       <c r="P21">
-        <v>0.07557624215824542</v>
+        <v>0.04566392273134022</v>
       </c>
       <c r="Q21">
-        <v>11.04301916815823</v>
+        <v>8.231641855668</v>
       </c>
       <c r="R21">
-        <v>99.38717251342402</v>
+        <v>74.084776701012</v>
       </c>
       <c r="S21">
-        <v>0.004038997562504727</v>
+        <v>0.002775089137447396</v>
       </c>
       <c r="T21">
-        <v>0.004038997562504726</v>
+        <v>0.002775089137447396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9623736666666666</v>
+        <v>1.550905333333333</v>
       </c>
       <c r="N22">
-        <v>2.887121</v>
+        <v>4.652716</v>
       </c>
       <c r="O22">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="P22">
-        <v>0.2222122422038097</v>
+        <v>0.3047927374587132</v>
       </c>
       <c r="Q22">
-        <v>153.7786903484449</v>
+        <v>188.1633031661484</v>
       </c>
       <c r="R22">
-        <v>1384.008213136004</v>
+        <v>1693.469728495336</v>
       </c>
       <c r="S22">
-        <v>0.05624474122742359</v>
+        <v>0.06343448218936457</v>
       </c>
       <c r="T22">
-        <v>0.05624474122742359</v>
+        <v>0.06343448218936457</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.646062</v>
       </c>
       <c r="O23">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072322</v>
       </c>
       <c r="P23">
-        <v>0.4345588898566171</v>
+        <v>0.3698654061072323</v>
       </c>
       <c r="Q23">
-        <v>300.7300421375209</v>
+        <v>228.3358098368502</v>
       </c>
       <c r="R23">
-        <v>2706.570379237688</v>
+        <v>2055.022288531652</v>
       </c>
       <c r="S23">
-        <v>0.1099923751529602</v>
+        <v>0.07697762325898423</v>
       </c>
       <c r="T23">
-        <v>0.1099923751529602</v>
+        <v>0.07697762325898423</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3112836666666667</v>
+        <v>0.260824</v>
       </c>
       <c r="N24">
-        <v>0.933851</v>
+        <v>0.7824719999999999</v>
       </c>
       <c r="O24">
-        <v>0.07187545121741344</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="P24">
-        <v>0.07187545121741343</v>
+        <v>0.05125861601369915</v>
       </c>
       <c r="Q24">
-        <v>49.7403412467249</v>
+        <v>31.64442363450133</v>
       </c>
       <c r="R24">
-        <v>447.663071220524</v>
+        <v>284.799812710512</v>
       </c>
       <c r="S24">
-        <v>0.0181925897251867</v>
+        <v>0.01066811431165721</v>
       </c>
       <c r="T24">
-        <v>0.0181925897251867</v>
+        <v>0.01066811431165721</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8478866666666667</v>
+        <v>1.162287333333333</v>
       </c>
       <c r="N25">
-        <v>2.54366</v>
+        <v>3.486862</v>
       </c>
       <c r="O25">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="P25">
-        <v>0.1957771745639142</v>
+        <v>0.2284193176890152</v>
       </c>
       <c r="Q25">
-        <v>135.4846933993156</v>
+        <v>141.0142960809391</v>
       </c>
       <c r="R25">
-        <v>1219.36224059384</v>
+        <v>1269.128664728452</v>
       </c>
       <c r="S25">
-        <v>0.04955368980744081</v>
+        <v>0.04753939106443895</v>
       </c>
       <c r="T25">
-        <v>0.04955368980744081</v>
+        <v>0.04753939106443895</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3273113333333333</v>
+        <v>0.232356</v>
       </c>
       <c r="N26">
-        <v>0.981934</v>
+        <v>0.697068</v>
       </c>
       <c r="O26">
-        <v>0.07557624215824543</v>
+        <v>0.04566392273134021</v>
       </c>
       <c r="P26">
-        <v>0.07557624215824542</v>
+        <v>0.04566392273134022</v>
       </c>
       <c r="Q26">
-        <v>52.30141879353511</v>
+        <v>28.190548791592</v>
       </c>
       <c r="R26">
-        <v>470.712769141816</v>
+        <v>253.714939124328</v>
       </c>
       <c r="S26">
-        <v>0.01912930692285116</v>
+        <v>0.009503728065666588</v>
       </c>
       <c r="T26">
-        <v>0.01912930692285116</v>
+        <v>0.009503728065666588</v>
       </c>
     </row>
   </sheetData>
